--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Fzd4</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.233879954227434</v>
+        <v>0.32782</v>
       </c>
       <c r="H2">
-        <v>0.233879954227434</v>
+        <v>0.98346</v>
       </c>
       <c r="I2">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J2">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.1536323942571</v>
+        <v>27.25040933333333</v>
       </c>
       <c r="N2">
-        <v>25.1536323942571</v>
+        <v>81.751228</v>
       </c>
       <c r="O2">
-        <v>0.4615335486812511</v>
+        <v>0.455635031912059</v>
       </c>
       <c r="P2">
-        <v>0.4615335486812511</v>
+        <v>0.4556350319120589</v>
       </c>
       <c r="Q2">
-        <v>5.882930393022551</v>
+        <v>8.933229187653334</v>
       </c>
       <c r="R2">
-        <v>5.882930393022551</v>
+        <v>80.39906268887999</v>
       </c>
       <c r="S2">
-        <v>0.003173700875639119</v>
+        <v>0.004350248779196556</v>
       </c>
       <c r="T2">
-        <v>0.003173700875639119</v>
+        <v>0.004350248779196556</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.233879954227434</v>
+        <v>0.32782</v>
       </c>
       <c r="H3">
-        <v>0.233879954227434</v>
+        <v>0.98346</v>
       </c>
       <c r="I3">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J3">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.9676925388148</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N3">
-        <v>13.9676925388148</v>
+        <v>42.094435</v>
       </c>
       <c r="O3">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="P3">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="Q3">
-        <v>3.266763291640877</v>
+        <v>4.599799227233333</v>
       </c>
       <c r="R3">
-        <v>3.266763291640877</v>
+        <v>41.3981930451</v>
       </c>
       <c r="S3">
-        <v>0.001762341014859368</v>
+        <v>0.002239981819841517</v>
       </c>
       <c r="T3">
-        <v>0.001762341014859368</v>
+        <v>0.002239981819841517</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.233879954227434</v>
+        <v>0.32782</v>
       </c>
       <c r="H4">
-        <v>0.233879954227434</v>
+        <v>0.98346</v>
       </c>
       <c r="I4">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J4">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.291143333577943</v>
+        <v>0.3744183333333334</v>
       </c>
       <c r="N4">
-        <v>0.291143333577943</v>
+        <v>1.123255</v>
       </c>
       <c r="O4">
-        <v>0.005342068048660686</v>
+        <v>0.006260387033823881</v>
       </c>
       <c r="P4">
-        <v>0.005342068048660686</v>
+        <v>0.00626038703382388</v>
       </c>
       <c r="Q4">
-        <v>0.06809258953083185</v>
+        <v>0.1227418180333333</v>
       </c>
       <c r="R4">
-        <v>0.06809258953083185</v>
+        <v>1.1046763623</v>
       </c>
       <c r="S4">
-        <v>3.673433078094006E-05</v>
+        <v>5.977205250637247E-05</v>
       </c>
       <c r="T4">
-        <v>3.673433078094006E-05</v>
+        <v>5.977205250637247E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.233879954227434</v>
+        <v>0.32782</v>
       </c>
       <c r="H5">
-        <v>0.233879954227434</v>
+        <v>0.98346</v>
       </c>
       <c r="I5">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J5">
-        <v>0.006876425093489731</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>15.0876487153747</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N5">
-        <v>15.0876487153747</v>
+        <v>0.426419</v>
       </c>
       <c r="O5">
-        <v>0.2768369968884832</v>
+        <v>0.002376617934997971</v>
       </c>
       <c r="P5">
-        <v>0.2768369968884832</v>
+        <v>0.00237661793499797</v>
       </c>
       <c r="Q5">
-        <v>3.528698590951438</v>
+        <v>0.04659622552666667</v>
       </c>
       <c r="R5">
-        <v>3.528698590951438</v>
+        <v>0.41936602974</v>
       </c>
       <c r="S5">
-        <v>0.001903648872210305</v>
+        <v>2.269114213398991E-05</v>
       </c>
       <c r="T5">
-        <v>0.001903648872210305</v>
+        <v>2.269114213398991E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.322143973588</v>
+        <v>0.32782</v>
       </c>
       <c r="H6">
-        <v>33.322143973588</v>
+        <v>0.98346</v>
       </c>
       <c r="I6">
-        <v>0.9797215316967104</v>
+        <v>0.009547660900745197</v>
       </c>
       <c r="J6">
-        <v>0.9797215316967104</v>
+        <v>0.009547660900745198</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.1536323942571</v>
+        <v>18.009092</v>
       </c>
       <c r="N6">
-        <v>25.1536323942571</v>
+        <v>54.027276</v>
       </c>
       <c r="O6">
-        <v>0.4615335486812511</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="P6">
-        <v>0.4615335486812511</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="Q6">
-        <v>838.1729601001422</v>
+        <v>5.903740539439999</v>
       </c>
       <c r="R6">
-        <v>838.1729601001422</v>
+        <v>53.13366485496</v>
       </c>
       <c r="S6">
-        <v>0.4521743552434135</v>
+        <v>0.002874967107066763</v>
       </c>
       <c r="T6">
-        <v>0.4521743552434135</v>
+        <v>0.002874967107066763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.322143973588</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H7">
-        <v>33.322143973588</v>
+        <v>100.554517</v>
       </c>
       <c r="I7">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J7">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.9676925388148</v>
+        <v>27.25040933333333</v>
       </c>
       <c r="N7">
-        <v>13.9676925388148</v>
+        <v>81.751228</v>
       </c>
       <c r="O7">
-        <v>0.2562873863816051</v>
+        <v>0.455635031912059</v>
       </c>
       <c r="P7">
-        <v>0.2562873863816051</v>
+        <v>0.4556350319120589</v>
       </c>
       <c r="Q7">
-        <v>465.4334617571976</v>
+        <v>913.3839161885418</v>
       </c>
       <c r="R7">
-        <v>465.4334617571976</v>
+        <v>8220.455245696876</v>
       </c>
       <c r="S7">
-        <v>0.2510902707403327</v>
+        <v>0.4447940585503725</v>
       </c>
       <c r="T7">
-        <v>0.2510902707403327</v>
+        <v>0.4447940585503724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.322143973588</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H8">
-        <v>33.322143973588</v>
+        <v>100.554517</v>
       </c>
       <c r="I8">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J8">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.291143333577943</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N8">
-        <v>0.291143333577943</v>
+        <v>42.094435</v>
       </c>
       <c r="O8">
-        <v>0.005342068048660686</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="P8">
-        <v>0.005342068048660686</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="Q8">
-        <v>9.701520078434573</v>
+        <v>470.3095088680994</v>
       </c>
       <c r="R8">
-        <v>9.701520078434573</v>
+        <v>4232.785579812896</v>
       </c>
       <c r="S8">
-        <v>0.005233739091061904</v>
+        <v>0.2290284200505814</v>
       </c>
       <c r="T8">
-        <v>0.005233739091061904</v>
+        <v>0.2290284200505814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.322143973588</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H9">
-        <v>33.322143973588</v>
+        <v>100.554517</v>
       </c>
       <c r="I9">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J9">
-        <v>0.9797215316967104</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.0876487153747</v>
+        <v>0.3744183333333334</v>
       </c>
       <c r="N9">
-        <v>15.0876487153747</v>
+        <v>1.123255</v>
       </c>
       <c r="O9">
-        <v>0.2768369968884832</v>
+        <v>0.006260387033823881</v>
       </c>
       <c r="P9">
-        <v>0.2768369968884832</v>
+        <v>0.00626038703382388</v>
       </c>
       <c r="Q9">
-        <v>502.7528027166358</v>
+        <v>12.54981822142611</v>
       </c>
       <c r="R9">
-        <v>502.7528027166358</v>
+        <v>112.948363992835</v>
       </c>
       <c r="S9">
-        <v>0.2712231666219023</v>
+        <v>0.006111432971220917</v>
       </c>
       <c r="T9">
-        <v>0.2712231666219023</v>
+        <v>0.006111432971220917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.455828313381856</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H10">
-        <v>0.455828313381856</v>
+        <v>100.554517</v>
       </c>
       <c r="I10">
-        <v>0.01340204320979991</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J10">
-        <v>0.01340204320979991</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>25.1536323942571</v>
+        <v>0.1421396666666667</v>
       </c>
       <c r="N10">
-        <v>25.1536323942571</v>
+        <v>0.426419</v>
       </c>
       <c r="O10">
-        <v>0.4615335486812511</v>
+        <v>0.002376617934997971</v>
       </c>
       <c r="P10">
-        <v>0.4615335486812511</v>
+        <v>0.00237661793499797</v>
       </c>
       <c r="Q10">
-        <v>11.46573782970143</v>
+        <v>4.764261842735888</v>
       </c>
       <c r="R10">
-        <v>11.46573782970143</v>
+        <v>42.878356584623</v>
       </c>
       <c r="S10">
-        <v>0.006185492562198417</v>
+        <v>0.002320070808636554</v>
       </c>
       <c r="T10">
-        <v>0.006185492562198417</v>
+        <v>0.002320070808636554</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.455828313381856</v>
+        <v>33.51817233333333</v>
       </c>
       <c r="H11">
-        <v>0.455828313381856</v>
+        <v>100.554517</v>
       </c>
       <c r="I11">
-        <v>0.01340204320979991</v>
+        <v>0.9762068923537492</v>
       </c>
       <c r="J11">
-        <v>0.01340204320979991</v>
+        <v>0.9762068923537494</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.9676925388148</v>
+        <v>18.009092</v>
       </c>
       <c r="N11">
-        <v>13.9676925388148</v>
+        <v>54.027276</v>
       </c>
       <c r="O11">
-        <v>0.2562873863816051</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="P11">
-        <v>0.2562873863816051</v>
+        <v>0.3011174293844444</v>
       </c>
       <c r="Q11">
-        <v>6.366869731804284</v>
+        <v>603.6318492228546</v>
       </c>
       <c r="R11">
-        <v>6.366869731804284</v>
+        <v>5432.686643005693</v>
       </c>
       <c r="S11">
-        <v>0.003434774626412956</v>
+        <v>0.293952909972938</v>
       </c>
       <c r="T11">
-        <v>0.003434774626412956</v>
+        <v>0.293952909972938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.455828313381856</v>
+        <v>0.023649</v>
       </c>
       <c r="H12">
-        <v>0.455828313381856</v>
+        <v>0.070947</v>
       </c>
       <c r="I12">
-        <v>0.01340204320979991</v>
+        <v>0.0006887701563105459</v>
       </c>
       <c r="J12">
-        <v>0.01340204320979991</v>
+        <v>0.0006887701563105459</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.291143333577943</v>
+        <v>27.25040933333333</v>
       </c>
       <c r="N12">
-        <v>0.291143333577943</v>
+        <v>81.751228</v>
       </c>
       <c r="O12">
-        <v>0.005342068048660686</v>
+        <v>0.455635031912059</v>
       </c>
       <c r="P12">
-        <v>0.005342068048660686</v>
+        <v>0.4556350319120589</v>
       </c>
       <c r="Q12">
-        <v>0.1327113746972048</v>
+        <v>0.644444930324</v>
       </c>
       <c r="R12">
-        <v>0.1327113746972048</v>
+        <v>5.800004372916</v>
       </c>
       <c r="S12">
-        <v>7.159462681784201E-05</v>
+        <v>0.0003138278121506294</v>
       </c>
       <c r="T12">
-        <v>7.159462681784201E-05</v>
+        <v>0.0003138278121506294</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.023649</v>
+      </c>
+      <c r="H13">
+        <v>0.070947</v>
+      </c>
+      <c r="I13">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="J13">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.03147833333333</v>
+      </c>
+      <c r="N13">
+        <v>42.094435</v>
+      </c>
+      <c r="O13">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="P13">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="Q13">
+        <v>0.331830431105</v>
+      </c>
+      <c r="R13">
+        <v>2.986473879945</v>
+      </c>
+      <c r="S13">
+        <v>0.0001615927339925326</v>
+      </c>
+      <c r="T13">
+        <v>0.0001615927339925326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.023649</v>
+      </c>
+      <c r="H14">
+        <v>0.070947</v>
+      </c>
+      <c r="I14">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="J14">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3744183333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.123255</v>
+      </c>
+      <c r="O14">
+        <v>0.006260387033823881</v>
+      </c>
+      <c r="P14">
+        <v>0.00626038703382388</v>
+      </c>
+      <c r="Q14">
+        <v>0.008854619165000001</v>
+      </c>
+      <c r="R14">
+        <v>0.079691572485</v>
+      </c>
+      <c r="S14">
+        <v>4.31196775585139E-06</v>
+      </c>
+      <c r="T14">
+        <v>4.311967755851389E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.023649</v>
+      </c>
+      <c r="H15">
+        <v>0.070947</v>
+      </c>
+      <c r="I15">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="J15">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.426419</v>
+      </c>
+      <c r="O15">
+        <v>0.002376617934997971</v>
+      </c>
+      <c r="P15">
+        <v>0.00237661793499797</v>
+      </c>
+      <c r="Q15">
+        <v>0.003361460977</v>
+      </c>
+      <c r="R15">
+        <v>0.030253148793</v>
+      </c>
+      <c r="S15">
+        <v>1.636943506578999E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.636943506578999E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.023649</v>
+      </c>
+      <c r="H16">
+        <v>0.070947</v>
+      </c>
+      <c r="I16">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="J16">
+        <v>0.0006887701563105459</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.009092</v>
+      </c>
+      <c r="N16">
+        <v>54.027276</v>
+      </c>
+      <c r="O16">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="P16">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="Q16">
+        <v>0.425897016708</v>
+      </c>
+      <c r="R16">
+        <v>3.833073150372</v>
+      </c>
+      <c r="S16">
+        <v>0.0002074006989049536</v>
+      </c>
+      <c r="T16">
+        <v>0.0002074006989049536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.46547</v>
+      </c>
+      <c r="H17">
+        <v>1.39641</v>
+      </c>
+      <c r="I17">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J17">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>27.25040933333333</v>
+      </c>
+      <c r="N17">
+        <v>81.751228</v>
+      </c>
+      <c r="O17">
+        <v>0.455635031912059</v>
+      </c>
+      <c r="P17">
+        <v>0.4556350319120589</v>
+      </c>
+      <c r="Q17">
+        <v>12.68424803238667</v>
+      </c>
+      <c r="R17">
+        <v>114.15823229148</v>
+      </c>
+      <c r="S17">
+        <v>0.006176896770339274</v>
+      </c>
+      <c r="T17">
+        <v>0.006176896770339273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.46547</v>
+      </c>
+      <c r="H18">
+        <v>1.39641</v>
+      </c>
+      <c r="I18">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J18">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.03147833333333</v>
+      </c>
+      <c r="N18">
+        <v>42.094435</v>
+      </c>
+      <c r="O18">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="P18">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="Q18">
+        <v>6.531232219816667</v>
+      </c>
+      <c r="R18">
+        <v>58.78108997835</v>
+      </c>
+      <c r="S18">
+        <v>0.003180539130259383</v>
+      </c>
+      <c r="T18">
+        <v>0.003180539130259382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.455828313381856</v>
-      </c>
-      <c r="H13">
-        <v>0.455828313381856</v>
-      </c>
-      <c r="I13">
-        <v>0.01340204320979991</v>
-      </c>
-      <c r="J13">
-        <v>0.01340204320979991</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>15.0876487153747</v>
-      </c>
-      <c r="N13">
-        <v>15.0876487153747</v>
-      </c>
-      <c r="O13">
-        <v>0.2768369968884832</v>
-      </c>
-      <c r="P13">
-        <v>0.2768369968884832</v>
-      </c>
-      <c r="Q13">
-        <v>6.877377466827175</v>
-      </c>
-      <c r="R13">
-        <v>6.877377466827175</v>
-      </c>
-      <c r="S13">
-        <v>0.003710181394370696</v>
-      </c>
-      <c r="T13">
-        <v>0.003710181394370696</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.46547</v>
+      </c>
+      <c r="H19">
+        <v>1.39641</v>
+      </c>
+      <c r="I19">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J19">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3744183333333334</v>
+      </c>
+      <c r="N19">
+        <v>1.123255</v>
+      </c>
+      <c r="O19">
+        <v>0.006260387033823881</v>
+      </c>
+      <c r="P19">
+        <v>0.00626038703382388</v>
+      </c>
+      <c r="Q19">
+        <v>0.1742805016166667</v>
+      </c>
+      <c r="R19">
+        <v>1.56852451455</v>
+      </c>
+      <c r="S19">
+        <v>8.487004234073941E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.48700423407394E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.46547</v>
+      </c>
+      <c r="H20">
+        <v>1.39641</v>
+      </c>
+      <c r="I20">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J20">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.426419</v>
+      </c>
+      <c r="O20">
+        <v>0.002376617934997971</v>
+      </c>
+      <c r="P20">
+        <v>0.00237661793499797</v>
+      </c>
+      <c r="Q20">
+        <v>0.06616175064333334</v>
+      </c>
+      <c r="R20">
+        <v>0.59545575579</v>
+      </c>
+      <c r="S20">
+        <v>3.221904072084768E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.221904072084767E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.46547</v>
+      </c>
+      <c r="H21">
+        <v>1.39641</v>
+      </c>
+      <c r="I21">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="J21">
+        <v>0.01355667658919488</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>18.009092</v>
+      </c>
+      <c r="N21">
+        <v>54.027276</v>
+      </c>
+      <c r="O21">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="P21">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="Q21">
+        <v>8.38269205324</v>
+      </c>
+      <c r="R21">
+        <v>75.44422847916</v>
+      </c>
+      <c r="S21">
+        <v>0.004082151605534642</v>
+      </c>
+      <c r="T21">
+        <v>0.004082151605534642</v>
       </c>
     </row>
   </sheetData>
